--- a/src/test.xlsx
+++ b/src/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Test Table</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Emma</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Nikita</t>
   </si>
 </sst>
 </file>
@@ -99,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -249,100 +255,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -392,33 +311,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1538,7 +1430,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1617,58 +1509,21 @@
       <c r="G4" s="16"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="A5" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15">
+        <v>36075</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
